--- a/CorreosInstitucionales/Server/wwwroot/assets/sol_alta_desbloqueo.xlsx
+++ b/CorreosInstitucionales/Server/wwwroot/assets/sol_alta_desbloqueo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\CorreosInstitucionales\CorreosInstitucionales\Client\wwwroot\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641136A5-FED4-43CD-A3CD-644E791EC3B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato-Cuentas-Inst" sheetId="1" r:id="rId1"/>
@@ -23,23 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SOLICITUD DE CUENTAS DE CORREO.</t>
   </si>
@@ -102,12 +92,15 @@
   </si>
   <si>
     <t>HONORARIOS</t>
+  </si>
+  <si>
+    <t>FROMATO A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -287,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -309,6 +308,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -636,6 +638,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -671,6 +690,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -846,15 +882,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -870,20 +906,20 @@
     <col min="10" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
@@ -894,19 +930,23 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3"/>
     </row>
-    <row r="4" spans="1:9" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -934,6 +974,19 @@
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -942,13 +995,13 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:D1048576 B1:D3 D4">
+  <conditionalFormatting sqref="B6:D1048576 B1:D3 D4">
     <cfRule type="duplicateValues" dxfId="2" priority="6359"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D4 D6:D1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="6363"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D1048576">
+  <conditionalFormatting sqref="D6:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="6366"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -959,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CorreosInstitucionales/Server/wwwroot/assets/sol_alta_desbloqueo.xlsx
+++ b/CorreosInstitucionales/Server/wwwroot/assets/sol_alta_desbloqueo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641136A5-FED4-43CD-A3CD-644E791EC3B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0745E3-5838-48DC-8EE0-4860BC1D5FCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -929,6 +929,7 @@
       <c r="H2" s="5">
         <v>45219</v>
       </c>
+      <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -977,15 +978,6 @@
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
       <c r="J5"/>
     </row>
   </sheetData>
@@ -995,13 +987,13 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:D1048576 B1:D3 D4">
+  <conditionalFormatting sqref="B5:D1048576 B1:D3 D4">
     <cfRule type="duplicateValues" dxfId="2" priority="6359"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D4 D6:D1048576">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="6363"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D1048576">
+  <conditionalFormatting sqref="D5:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="6366"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1267,6 +1259,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="88341f18-133c-494b-aa7b-816ea377ce3a" xsi:nil="true"/>
@@ -1275,15 +1276,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1306,6 +1298,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C0FD4C0-7CF4-4618-9A81-3E2A199208A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2961E42-D3B3-44BB-BDBD-4E2A97F0BCDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1314,12 +1314,4 @@
     <ds:schemaRef ds:uri="d76a1602-49b7-42db-b669-1a3cf8282f69"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C0FD4C0-7CF4-4618-9A81-3E2A199208A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CorreosInstitucionales/Server/wwwroot/assets/sol_alta_desbloqueo.xlsx
+++ b/CorreosInstitucionales/Server/wwwroot/assets/sol_alta_desbloqueo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l_alo\Documents\GitHub\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DA1918-02ED-462F-938F-CAA195A9C82D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880642CA-D813-4AEA-972B-B6C8D55402D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato-Cuentas-Inst" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ROL QUE DESEMPEÑA (ALUMNO, DOCENTE, ADMINISTRATIVO, EGRESADO)</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>POR FAVOR, PARA BRINDARLE UN MEJOR SERVICIO, LLENE COMPLETAMENTE EL ARCHIVO DE CAPTURA, CON TODA LAS LETRAS EN MAYÚSCULA Y EVITANDO LOS ACENTOS, DIÉRESIS, EÑES Y SIGNOS DE PUNTUACIÓN</t>
+  </si>
+  <si>
+    <t>CORREO INSTITUCIONAL</t>
   </si>
 </sst>
 </file>
@@ -634,11 +637,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,9 +654,10 @@
     <col min="6" max="6" width="24.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="26.140625" style="6" customWidth="1"/>
     <col min="8" max="8" width="54.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
@@ -661,7 +665,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -677,7 +681,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -689,7 +693,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -713,6 +717,9 @@
       </c>
       <c r="H4" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/CorreosInstitucionales/Server/wwwroot/assets/sol_alta_desbloqueo.xlsx
+++ b/CorreosInstitucionales/Server/wwwroot/assets/sol_alta_desbloqueo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l_alo\Documents\GitHub\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880642CA-D813-4AEA-972B-B6C8D55402D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB87AFC-1070-4A9A-A2D8-67612DC5562B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,7 +641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
     <col min="6" max="6" width="24.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="26.140625" style="6" customWidth="1"/>
     <col min="8" max="8" width="54.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="43" customWidth="1"/>
+    <col min="9" max="9" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/CorreosInstitucionales/Server/wwwroot/assets/sol_alta_desbloqueo.xlsx
+++ b/CorreosInstitucionales/Server/wwwroot/assets/sol_alta_desbloqueo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l_alo\Documents\GitHub\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB87AFC-1070-4A9A-A2D8-67612DC5562B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1176A50-B771-4BA5-88B1-94F04BC3F9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,24 +135,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -234,13 +221,10 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,29 +234,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,84 +628,84 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="54.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="56.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>45408</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="16" t="s">
         <v>20</v>
       </c>
     </row>
